--- a/data/sankey_data.xlsx
+++ b/data/sankey_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations-my.sharepoint.com/personal/patryk_guenther_un_org/Documents/Projects/AdHoc/Sankey/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{978DEDBA-3720-446A-A9BE-E7383A467C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E928303-DC98-45D3-9CC4-43610F054E94}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{978DEDBA-3720-446A-A9BE-E7383A467C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02406096-9FF1-4061-B3D1-2DBC3504087A}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{5448759B-1C6A-4B27-8B2F-4E0D0D1375FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18320" windowHeight="11020" activeTab="1" xr2:uid="{5448759B-1C6A-4B27-8B2F-4E0D0D1375FC}"/>
   </bookViews>
   <sheets>
     <sheet name="sankey_data_template" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>Source</t>
   </si>
@@ -60,15 +60,9 @@
     <t>Imports of second-hand goods</t>
   </si>
   <si>
-    <t>Imports of intermediate consumption by material type</t>
-  </si>
-  <si>
     <t>Direct material inputs</t>
   </si>
   <si>
-    <t>Natural resources extracted by material type</t>
-  </si>
-  <si>
     <t>Processed material</t>
   </si>
   <si>
@@ -78,15 +72,6 @@
     <t>Exports</t>
   </si>
   <si>
-    <t>of Processed material</t>
-  </si>
-  <si>
-    <t>of Semi-processed material</t>
-  </si>
-  <si>
-    <t>of Raw material</t>
-  </si>
-  <si>
     <t>Dissipative flows</t>
   </si>
   <si>
@@ -105,9 +90,6 @@
     <t>Incineration</t>
   </si>
   <si>
-    <t>Waste [treatment]</t>
-  </si>
-  <si>
     <t>Material accumulation</t>
   </si>
   <si>
@@ -120,12 +102,6 @@
     <t>Uncontrolled landfills</t>
   </si>
   <si>
-    <t>for Waste - final disposal</t>
-  </si>
-  <si>
-    <t>for Waste - recycling</t>
-  </si>
-  <si>
     <t>Recycling</t>
   </si>
   <si>
@@ -138,7 +114,37 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Material flow diagram</t>
+    <t>Imports of intermediate consumption</t>
+  </si>
+  <si>
+    <t>Natural resources extracted</t>
+  </si>
+  <si>
+    <t>Waste treatment</t>
+  </si>
+  <si>
+    <t>Exports of Processed material</t>
+  </si>
+  <si>
+    <t>Exports of Semi-processed material</t>
+  </si>
+  <si>
+    <t>Exports of Raw material</t>
+  </si>
+  <si>
+    <t>Exports of Waste - final disposal</t>
+  </si>
+  <si>
+    <t>Exports of Waste - recycling</t>
+  </si>
+  <si>
+    <t>Subtitle</t>
+  </si>
+  <si>
+    <t>Circular Physical Material Flow Diagram</t>
+  </si>
+  <si>
+    <t>('000 tonnes) in 2025</t>
   </si>
 </sst>
 </file>
@@ -627,13 +633,14 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1016,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D97BEE5-9AF2-461E-A5A8-0D5E1C535C6F}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1067,13 +1074,19 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1081,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>1518078</v>
@@ -1089,10 +1102,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>5376735</v>
@@ -1100,10 +1113,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
       </c>
       <c r="C8" s="1">
         <v>6894813</v>
@@ -1111,10 +1124,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>4748569</v>
@@ -1122,10 +1135,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>674364</v>
@@ -1133,34 +1146,43 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
         <v>248677</v>
@@ -1168,21 +1190,21 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
-        <v>2355525</v>
+        <v>2246457</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <v>2343095</v>
@@ -1190,10 +1212,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
         <v>12430</v>
@@ -1201,18 +1223,21 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1">
         <v>109068</v>
@@ -1220,10 +1245,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1">
         <v>1704099</v>
@@ -1231,10 +1256,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1">
         <v>3044470</v>
@@ -1242,10 +1267,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1">
         <v>109068</v>
@@ -1253,10 +1278,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1">
         <v>571777</v>
@@ -1264,10 +1289,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1">
         <v>115972</v>
@@ -1275,10 +1300,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C25" s="1">
         <v>455805</v>
@@ -1286,10 +1311,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1">
         <v>39041</v>
@@ -1297,32 +1322,32 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1">
         <v>635323</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>22</v>
+      <c r="A28" t="s">
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1">
         <v>745180</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>29</v>
+      <c r="A29" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C29" s="1">
         <v>745180</v>
@@ -1330,10 +1355,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" s="1">
         <v>278073</v>
@@ -1341,10 +1366,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
         <v>22</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
       </c>
       <c r="C31" s="1">
         <v>278073</v>
@@ -1352,10 +1377,13 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1365,20 +1393,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFCEA03-0BFE-492C-A1D4-F87AC66E3B84}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1387,6 +1423,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dd055a5a-a443-4286-b79d-4e9baf2cd17b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="985ec44e-1bab-4c0b-9df0-6ba128686fc9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A8687E850F6874DAA2C89080697799B" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d28a1617ddd427012b5c16ec3375817e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd055a5a-a443-4286-b79d-4e9baf2cd17b" xmlns:ns3="81436bda-9819-4d2a-9e28-fbe5892ec302" xmlns:ns4="985ec44e-1bab-4c0b-9df0-6ba128686fc9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1bd83d7846e51213df745ab187eaa7f3" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="dd055a5a-a443-4286-b79d-4e9baf2cd17b"/>
@@ -1646,27 +1702,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A25A3EA8-76D1-4483-92AE-21345208F469}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dd055a5a-a443-4286-b79d-4e9baf2cd17b"/>
+    <ds:schemaRef ds:uri="985ec44e-1bab-4c0b-9df0-6ba128686fc9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dd055a5a-a443-4286-b79d-4e9baf2cd17b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="985ec44e-1bab-4c0b-9df0-6ba128686fc9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C647B46F-03A4-4387-A2E2-D7DBD8A738C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF91870D-CE44-41BD-9E2D-D826E740F9AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1684,23 +1739,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C647B46F-03A4-4387-A2E2-D7DBD8A738C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A25A3EA8-76D1-4483-92AE-21345208F469}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dd055a5a-a443-4286-b79d-4e9baf2cd17b"/>
-    <ds:schemaRef ds:uri="985ec44e-1bab-4c0b-9df0-6ba128686fc9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/sankey_data.xlsx
+++ b/data/sankey_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations-my.sharepoint.com/personal/patryk_guenther_un_org/Documents/Projects/AdHoc/Sankey/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unitednations-my.sharepoint.com/personal/patryk_guenther_un_org/Documents/Projects/20250430_Sankey/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{978DEDBA-3720-446A-A9BE-E7383A467C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02406096-9FF1-4061-B3D1-2DBC3504087A}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{978DEDBA-3720-446A-A9BE-E7383A467C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1731E055-4B88-4174-B147-1266842146D0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18320" windowHeight="11020" activeTab="1" xr2:uid="{5448759B-1C6A-4B27-8B2F-4E0D0D1375FC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18320" windowHeight="11020" xr2:uid="{5448759B-1C6A-4B27-8B2F-4E0D0D1375FC}"/>
   </bookViews>
   <sheets>
     <sheet name="sankey_data_template" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Imports of waste for recycling</t>
   </si>
   <si>
-    <t>Imports</t>
-  </si>
-  <si>
     <t>Imports excluding imports of waste for recycling</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>Material use</t>
   </si>
   <si>
-    <t>Exports</t>
-  </si>
-  <si>
     <t>Dissipative flows</t>
   </si>
   <si>
@@ -145,6 +139,12 @@
   </si>
   <si>
     <t>('000 tonnes) in 2025</t>
+  </si>
+  <si>
+    <t>Total Exports</t>
+  </si>
+  <si>
+    <t>Total Imports</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D97BEE5-9AF2-461E-A5A8-0D5E1C535C6F}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1050,7 +1050,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1">
         <v>38782</v>
@@ -1058,10 +1058,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1">
         <v>1478296</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -1080,10 +1080,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -1091,10 +1091,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>1518078</v>
@@ -1102,10 +1102,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>5376735</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>6894813</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
       </c>
       <c r="C9" s="1">
         <v>4748569</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1">
         <v>674364</v>
@@ -1146,10 +1146,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -1157,10 +1157,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -1168,10 +1168,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
@@ -1179,10 +1179,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>248677</v>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
         <v>2246457</v>
@@ -1201,10 +1201,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
         <v>2343095</v>
@@ -1212,10 +1212,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
         <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
       </c>
       <c r="C17" s="1">
         <v>12430</v>
@@ -1223,10 +1223,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
@@ -1234,10 +1234,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1">
         <v>109068</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
         <v>1704099</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1">
         <v>3044470</v>
@@ -1267,10 +1267,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1">
         <v>109068</v>
@@ -1278,10 +1278,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1">
         <v>571777</v>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1">
         <v>115972</v>
@@ -1300,10 +1300,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C25" s="1">
         <v>455805</v>
@@ -1311,10 +1311,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1">
         <v>39041</v>
@@ -1322,10 +1322,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1">
         <v>635323</v>
@@ -1333,10 +1333,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1">
         <v>745180</v>
@@ -1344,10 +1344,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1">
         <v>745180</v>
@@ -1355,10 +1355,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1">
         <v>278073</v>
@@ -1366,10 +1366,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C31" s="1">
         <v>278073</v>
@@ -1377,10 +1377,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C32" s="4">
         <v>0</v>
@@ -1395,7 +1395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFCEA03-0BFE-492C-A1D4-F87AC66E3B84}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1403,18 +1403,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1423,26 +1423,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dd055a5a-a443-4286-b79d-4e9baf2cd17b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="985ec44e-1bab-4c0b-9df0-6ba128686fc9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A8687E850F6874DAA2C89080697799B" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d28a1617ddd427012b5c16ec3375817e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd055a5a-a443-4286-b79d-4e9baf2cd17b" xmlns:ns3="81436bda-9819-4d2a-9e28-fbe5892ec302" xmlns:ns4="985ec44e-1bab-4c0b-9df0-6ba128686fc9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1bd83d7846e51213df745ab187eaa7f3" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="dd055a5a-a443-4286-b79d-4e9baf2cd17b"/>
@@ -1702,26 +1682,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A25A3EA8-76D1-4483-92AE-21345208F469}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dd055a5a-a443-4286-b79d-4e9baf2cd17b"/>
-    <ds:schemaRef ds:uri="985ec44e-1bab-4c0b-9df0-6ba128686fc9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C647B46F-03A4-4387-A2E2-D7DBD8A738C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dd055a5a-a443-4286-b79d-4e9baf2cd17b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="985ec44e-1bab-4c0b-9df0-6ba128686fc9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF91870D-CE44-41BD-9E2D-D826E740F9AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1739,4 +1720,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C647B46F-03A4-4387-A2E2-D7DBD8A738C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A25A3EA8-76D1-4483-92AE-21345208F469}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dd055a5a-a443-4286-b79d-4e9baf2cd17b"/>
+    <ds:schemaRef ds:uri="985ec44e-1bab-4c0b-9df0-6ba128686fc9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>